--- a/planilha_vendas.xlsx
+++ b/planilha_vendas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftspu\OneDrive\Documentos\Analise_de_dados_com_python_e_pandas_Livro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftspu\OneDrive\Documentos\Github_Python\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,10 +74,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,11 +362,12 @@
   <dimension ref="A1:E513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D434" sqref="D434:D513"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -373,7 +375,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -390,7 +392,7 @@
       <c r="A2">
         <v>22</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>41641</v>
       </c>
       <c r="C2">
@@ -407,7 +409,7 @@
       <c r="A3">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>41641</v>
       </c>
       <c r="C3">
@@ -424,7 +426,7 @@
       <c r="A4">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>41641</v>
       </c>
       <c r="C4">
@@ -441,7 +443,7 @@
       <c r="A5">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>41641</v>
       </c>
       <c r="C5">
@@ -458,7 +460,7 @@
       <c r="A6">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>41641</v>
       </c>
       <c r="C6">
@@ -475,7 +477,7 @@
       <c r="A7">
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>41641</v>
       </c>
       <c r="C7">
@@ -492,7 +494,7 @@
       <c r="A8">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>41641</v>
       </c>
       <c r="C8">
@@ -509,7 +511,7 @@
       <c r="A9">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>41641</v>
       </c>
       <c r="C9">
@@ -526,7 +528,7 @@
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>41641</v>
       </c>
       <c r="C10">
@@ -543,7 +545,7 @@
       <c r="A11">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>41641</v>
       </c>
       <c r="C11">
@@ -560,7 +562,7 @@
       <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>41641</v>
       </c>
       <c r="C12">
@@ -574,7 +576,7 @@
       <c r="A13">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>41641</v>
       </c>
       <c r="C13">
@@ -591,7 +593,7 @@
       <c r="A14">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>41641</v>
       </c>
       <c r="C14">
@@ -605,7 +607,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="3">
         <v>41641</v>
       </c>
       <c r="C15">
@@ -622,7 +624,7 @@
       <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>41641</v>
       </c>
       <c r="C16">
@@ -639,7 +641,7 @@
       <c r="A17">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>41641</v>
       </c>
       <c r="C17">
@@ -656,7 +658,7 @@
       <c r="A18">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>41641</v>
       </c>
       <c r="C18">
@@ -673,7 +675,7 @@
       <c r="A19">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>41641</v>
       </c>
       <c r="C19">
@@ -690,7 +692,7 @@
       <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>41641</v>
       </c>
       <c r="C20">
@@ -707,7 +709,7 @@
       <c r="A21">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>41641</v>
       </c>
       <c r="C21">
@@ -724,7 +726,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>41641</v>
       </c>
       <c r="C22">
@@ -741,7 +743,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>41641</v>
       </c>
       <c r="C23">
@@ -758,7 +760,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>41641</v>
       </c>
       <c r="C24">
@@ -775,7 +777,7 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>41641</v>
       </c>
       <c r="C25">
@@ -792,7 +794,7 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>41641</v>
       </c>
       <c r="C26">
@@ -809,7 +811,7 @@
       <c r="A27">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>41641</v>
       </c>
       <c r="C27">
@@ -826,7 +828,7 @@
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>41641</v>
       </c>
       <c r="C28">
@@ -843,7 +845,7 @@
       <c r="A29">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>41641</v>
       </c>
       <c r="C29">
@@ -860,7 +862,7 @@
       <c r="A30">
         <v>22</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>41641</v>
       </c>
       <c r="C30">
@@ -877,7 +879,7 @@
       <c r="A31">
         <v>22</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>41641</v>
       </c>
       <c r="C31">
@@ -894,7 +896,7 @@
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>41641</v>
       </c>
       <c r="C32">
@@ -911,7 +913,7 @@
       <c r="A33">
         <v>22</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>41641</v>
       </c>
       <c r="C33">
@@ -928,7 +930,7 @@
       <c r="A34">
         <v>22</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>41641</v>
       </c>
       <c r="C34">
@@ -945,7 +947,7 @@
       <c r="A35">
         <v>22</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>41641</v>
       </c>
       <c r="C35">
@@ -962,7 +964,7 @@
       <c r="A36">
         <v>22</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>41641</v>
       </c>
       <c r="C36">
@@ -979,7 +981,7 @@
       <c r="A37">
         <v>22</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>41641</v>
       </c>
       <c r="C37">
@@ -993,7 +995,7 @@
       <c r="A38">
         <v>22</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>41641</v>
       </c>
       <c r="C38">
@@ -1010,7 +1012,7 @@
       <c r="A39">
         <v>22</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>41641</v>
       </c>
       <c r="C39">
@@ -1027,7 +1029,7 @@
       <c r="A40">
         <v>22</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>41641</v>
       </c>
       <c r="C40">
@@ -1044,7 +1046,7 @@
       <c r="A41">
         <v>22</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>41641</v>
       </c>
       <c r="C41">
@@ -1061,7 +1063,7 @@
       <c r="A42">
         <v>22</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>41641</v>
       </c>
       <c r="C42">
@@ -1078,7 +1080,7 @@
       <c r="A43">
         <v>22</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>41641</v>
       </c>
       <c r="C43">
@@ -1095,7 +1097,7 @@
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>41641</v>
       </c>
       <c r="C44">
@@ -1112,7 +1114,7 @@
       <c r="A45">
         <v>22</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>41641</v>
       </c>
       <c r="C45">
@@ -1126,7 +1128,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>41641</v>
       </c>
       <c r="C46">
@@ -1143,7 +1145,7 @@
       <c r="A47">
         <v>22</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>41641</v>
       </c>
       <c r="C47">
@@ -1160,7 +1162,7 @@
       <c r="A48">
         <v>22</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>41641</v>
       </c>
       <c r="C48">
@@ -1177,7 +1179,7 @@
       <c r="A49">
         <v>22</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>41641</v>
       </c>
       <c r="C49">
@@ -1194,7 +1196,7 @@
       <c r="A50">
         <v>22</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>41641</v>
       </c>
       <c r="C50">
@@ -1211,7 +1213,7 @@
       <c r="A51">
         <v>22</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>41641</v>
       </c>
       <c r="C51">
@@ -1228,7 +1230,7 @@
       <c r="A52">
         <v>22</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>41641</v>
       </c>
       <c r="C52">
@@ -1245,7 +1247,7 @@
       <c r="A53">
         <v>22</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>41641</v>
       </c>
       <c r="C53">
@@ -1262,7 +1264,7 @@
       <c r="A54">
         <v>22</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>41641</v>
       </c>
       <c r="C54">
@@ -1279,7 +1281,7 @@
       <c r="A55">
         <v>22</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>41641</v>
       </c>
       <c r="C55">
@@ -1296,7 +1298,7 @@
       <c r="A56">
         <v>22</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>41641</v>
       </c>
       <c r="C56">
@@ -1313,7 +1315,7 @@
       <c r="A57">
         <v>22</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>41641</v>
       </c>
       <c r="C57">
@@ -1330,7 +1332,7 @@
       <c r="A58">
         <v>22</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>41641</v>
       </c>
       <c r="C58">
@@ -1347,7 +1349,7 @@
       <c r="A59">
         <v>22</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>41641</v>
       </c>
       <c r="C59">
@@ -1364,7 +1366,7 @@
       <c r="A60">
         <v>22</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>41641</v>
       </c>
       <c r="C60">
@@ -1381,7 +1383,7 @@
       <c r="A61">
         <v>22</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>41641</v>
       </c>
       <c r="C61">
@@ -1398,7 +1400,7 @@
       <c r="A62">
         <v>22</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>41641</v>
       </c>
       <c r="C62">
@@ -1415,7 +1417,7 @@
       <c r="A63">
         <v>22</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>41641</v>
       </c>
       <c r="C63">
@@ -1432,7 +1434,7 @@
       <c r="A64">
         <v>22</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>41641</v>
       </c>
       <c r="C64">
@@ -1449,7 +1451,7 @@
       <c r="A65">
         <v>22</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>41641</v>
       </c>
       <c r="C65">
@@ -1466,7 +1468,7 @@
       <c r="A66">
         <v>22</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>41641</v>
       </c>
       <c r="C66">
@@ -1483,7 +1485,7 @@
       <c r="A67">
         <v>22</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>41641</v>
       </c>
       <c r="C67">
@@ -1500,7 +1502,7 @@
       <c r="A68">
         <v>22</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>41641</v>
       </c>
       <c r="C68">
@@ -1517,7 +1519,7 @@
       <c r="A69">
         <v>22</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>41641</v>
       </c>
       <c r="C69">
@@ -1534,7 +1536,7 @@
       <c r="A70">
         <v>22</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>41641</v>
       </c>
       <c r="C70">
@@ -1551,7 +1553,7 @@
       <c r="A71">
         <v>22</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>41641</v>
       </c>
       <c r="C71">
@@ -1568,7 +1570,7 @@
       <c r="A72">
         <v>22</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>41641</v>
       </c>
       <c r="C72">
@@ -1585,7 +1587,7 @@
       <c r="A73">
         <v>22</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>41641</v>
       </c>
       <c r="C73">
@@ -1602,7 +1604,7 @@
       <c r="A74">
         <v>22</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>41641</v>
       </c>
       <c r="C74">
@@ -1619,7 +1621,7 @@
       <c r="A75">
         <v>22</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="3">
         <v>41641</v>
       </c>
       <c r="C75">
@@ -1636,7 +1638,7 @@
       <c r="A76">
         <v>22</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>41641</v>
       </c>
       <c r="C76">
@@ -1653,7 +1655,7 @@
       <c r="A77">
         <v>22</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="3">
         <v>41641</v>
       </c>
       <c r="C77">
@@ -1670,7 +1672,7 @@
       <c r="A78">
         <v>22</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>41641</v>
       </c>
       <c r="C78">
@@ -1687,7 +1689,7 @@
       <c r="A79">
         <v>22</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>41641</v>
       </c>
       <c r="C79">
@@ -1704,7 +1706,7 @@
       <c r="A80">
         <v>22</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>41641</v>
       </c>
       <c r="C80">
@@ -1721,7 +1723,7 @@
       <c r="A81">
         <v>22</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>41641</v>
       </c>
       <c r="C81">
@@ -1738,7 +1740,7 @@
       <c r="A82">
         <v>22</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>41641</v>
       </c>
       <c r="C82">
@@ -1755,7 +1757,7 @@
       <c r="A83">
         <v>22</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>41641</v>
       </c>
       <c r="C83">
@@ -1769,7 +1771,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="B84" s="3">
         <v>41641</v>
       </c>
       <c r="C84">
@@ -1786,7 +1788,7 @@
       <c r="A85">
         <v>22</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>41641</v>
       </c>
       <c r="C85">
@@ -1803,7 +1805,7 @@
       <c r="A86">
         <v>22</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>41641</v>
       </c>
       <c r="C86">
@@ -1820,7 +1822,7 @@
       <c r="A87">
         <v>22</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>41641</v>
       </c>
       <c r="C87">
@@ -1837,7 +1839,7 @@
       <c r="A88">
         <v>22</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>41641</v>
       </c>
       <c r="C88">
@@ -1854,7 +1856,7 @@
       <c r="A89">
         <v>22</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>41641</v>
       </c>
       <c r="C89">
@@ -1871,7 +1873,7 @@
       <c r="A90">
         <v>22</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>41641</v>
       </c>
       <c r="C90">
@@ -1888,7 +1890,7 @@
       <c r="A91">
         <v>22</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>41641</v>
       </c>
       <c r="C91">
@@ -1905,7 +1907,7 @@
       <c r="A92">
         <v>22</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>41641</v>
       </c>
       <c r="C92">
@@ -1922,7 +1924,7 @@
       <c r="A93">
         <v>22</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="3">
         <v>41641</v>
       </c>
       <c r="C93">
@@ -1939,7 +1941,7 @@
       <c r="A94">
         <v>22</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="3">
         <v>41641</v>
       </c>
       <c r="C94">
@@ -1956,7 +1958,7 @@
       <c r="A95">
         <v>22</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>41641</v>
       </c>
       <c r="C95">
@@ -1973,7 +1975,7 @@
       <c r="A96">
         <v>22</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>41641</v>
       </c>
       <c r="C96">
@@ -1990,7 +1992,7 @@
       <c r="A97">
         <v>22</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>41641</v>
       </c>
       <c r="C97">
@@ -2007,7 +2009,7 @@
       <c r="A98">
         <v>22</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="3">
         <v>41641</v>
       </c>
       <c r="C98">
@@ -2024,7 +2026,7 @@
       <c r="A99">
         <v>22</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="3">
         <v>41641</v>
       </c>
       <c r="C99">
@@ -2041,7 +2043,7 @@
       <c r="A100">
         <v>22</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>41641</v>
       </c>
       <c r="C100">
@@ -2058,7 +2060,7 @@
       <c r="A101">
         <v>22</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>41641</v>
       </c>
       <c r="C101">
@@ -2075,7 +2077,7 @@
       <c r="A102">
         <v>22</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="3">
         <v>41641</v>
       </c>
       <c r="C102">
@@ -2092,7 +2094,7 @@
       <c r="A103">
         <v>22</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="3">
         <v>41641</v>
       </c>
       <c r="C103">
@@ -2109,7 +2111,7 @@
       <c r="A104">
         <v>22</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>41641</v>
       </c>
       <c r="C104">
@@ -2126,7 +2128,7 @@
       <c r="A105">
         <v>22</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>41641</v>
       </c>
       <c r="C105">
@@ -2143,7 +2145,7 @@
       <c r="A106">
         <v>22</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>41641</v>
       </c>
       <c r="C106">
@@ -2160,7 +2162,7 @@
       <c r="A107">
         <v>22</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>41641</v>
       </c>
       <c r="C107">
@@ -2177,7 +2179,7 @@
       <c r="A108">
         <v>22</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>41641</v>
       </c>
       <c r="C108">
@@ -2194,7 +2196,7 @@
       <c r="A109">
         <v>22</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>41641</v>
       </c>
       <c r="C109">
@@ -2211,7 +2213,7 @@
       <c r="A110">
         <v>22</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>41641</v>
       </c>
       <c r="C110">
@@ -2228,7 +2230,7 @@
       <c r="A111">
         <v>22</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="3">
         <v>41641</v>
       </c>
       <c r="C111">
@@ -2245,7 +2247,7 @@
       <c r="A112">
         <v>22</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="3">
         <v>41641</v>
       </c>
       <c r="C112">
@@ -2262,7 +2264,7 @@
       <c r="A113">
         <v>22</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="3">
         <v>41641</v>
       </c>
       <c r="C113">
@@ -2279,7 +2281,7 @@
       <c r="A114">
         <v>22</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>41641</v>
       </c>
       <c r="C114">
@@ -2296,7 +2298,7 @@
       <c r="A115">
         <v>22</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>41641</v>
       </c>
       <c r="C115">
@@ -2313,7 +2315,7 @@
       <c r="A116">
         <v>22</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>41641</v>
       </c>
       <c r="C116">
@@ -2330,7 +2332,7 @@
       <c r="A117">
         <v>22</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="3">
         <v>41641</v>
       </c>
       <c r="C117">
@@ -2347,7 +2349,7 @@
       <c r="A118">
         <v>22</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="3">
         <v>41641</v>
       </c>
       <c r="C118">
@@ -2364,7 +2366,7 @@
       <c r="A119">
         <v>22</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>41641</v>
       </c>
       <c r="C119">
@@ -2381,7 +2383,7 @@
       <c r="A120">
         <v>22</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>41641</v>
       </c>
       <c r="C120">
@@ -2398,7 +2400,7 @@
       <c r="A121">
         <v>22</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="3">
         <v>41641</v>
       </c>
       <c r="C121">
@@ -2415,7 +2417,7 @@
       <c r="A122">
         <v>22</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>41641</v>
       </c>
       <c r="C122">
@@ -2432,7 +2434,7 @@
       <c r="A123">
         <v>22</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>41641</v>
       </c>
       <c r="C123">
@@ -2449,7 +2451,7 @@
       <c r="A124">
         <v>22</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="3">
         <v>41641</v>
       </c>
       <c r="C124">
@@ -2466,7 +2468,7 @@
       <c r="A125">
         <v>22</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>41641</v>
       </c>
       <c r="C125">
@@ -2483,7 +2485,7 @@
       <c r="A126">
         <v>22</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>41641</v>
       </c>
       <c r="C126">
@@ -2500,7 +2502,7 @@
       <c r="A127">
         <v>22</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>41641</v>
       </c>
       <c r="C127">
@@ -2517,7 +2519,7 @@
       <c r="A128">
         <v>22</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>41641</v>
       </c>
       <c r="C128">
@@ -2534,7 +2536,7 @@
       <c r="A129">
         <v>22</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>41641</v>
       </c>
       <c r="C129">
@@ -2551,7 +2553,7 @@
       <c r="A130">
         <v>22</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>41641</v>
       </c>
       <c r="C130">
@@ -2568,7 +2570,7 @@
       <c r="A131">
         <v>22</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>41641</v>
       </c>
       <c r="C131">
@@ -2585,7 +2587,7 @@
       <c r="A132">
         <v>22</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>41641</v>
       </c>
       <c r="C132">
@@ -2602,7 +2604,7 @@
       <c r="A133">
         <v>22</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>41641</v>
       </c>
       <c r="C133">
@@ -2619,7 +2621,7 @@
       <c r="A134">
         <v>22</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="3">
         <v>41641</v>
       </c>
       <c r="C134">
@@ -2636,7 +2638,7 @@
       <c r="A135">
         <v>22</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>41641</v>
       </c>
       <c r="C135">
@@ -2653,7 +2655,7 @@
       <c r="A136">
         <v>22</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>41641</v>
       </c>
       <c r="C136">
@@ -2670,7 +2672,7 @@
       <c r="A137">
         <v>22</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>41641</v>
       </c>
       <c r="C137">
@@ -2687,7 +2689,7 @@
       <c r="A138">
         <v>22</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>41641</v>
       </c>
       <c r="C138">
@@ -2704,7 +2706,7 @@
       <c r="A139">
         <v>22</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>41641</v>
       </c>
       <c r="C139">
@@ -2718,7 +2720,7 @@
       <c r="A140">
         <v>22</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>41641</v>
       </c>
       <c r="C140">
@@ -2735,7 +2737,7 @@
       <c r="A141">
         <v>22</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>41641</v>
       </c>
       <c r="C141">
@@ -2752,7 +2754,7 @@
       <c r="A142">
         <v>22</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>41641</v>
       </c>
       <c r="C142">
@@ -2769,7 +2771,7 @@
       <c r="A143">
         <v>22</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>41641</v>
       </c>
       <c r="C143">
@@ -2786,7 +2788,7 @@
       <c r="A144">
         <v>22</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>41641</v>
       </c>
       <c r="C144">
@@ -2803,7 +2805,7 @@
       <c r="A145">
         <v>22</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>41641</v>
       </c>
       <c r="C145">
@@ -2820,7 +2822,7 @@
       <c r="A146">
         <v>22</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>41641</v>
       </c>
       <c r="C146">
@@ -2837,7 +2839,7 @@
       <c r="A147">
         <v>22</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>41641</v>
       </c>
       <c r="C147">
@@ -2854,7 +2856,7 @@
       <c r="A148">
         <v>22</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>41641</v>
       </c>
       <c r="C148">
@@ -2871,7 +2873,7 @@
       <c r="A149">
         <v>22</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>41641</v>
       </c>
       <c r="C149">
@@ -2888,7 +2890,7 @@
       <c r="A150">
         <v>22</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>41641</v>
       </c>
       <c r="C150">
@@ -2905,7 +2907,7 @@
       <c r="A151">
         <v>22</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>41641</v>
       </c>
       <c r="C151">
@@ -2922,7 +2924,7 @@
       <c r="A152">
         <v>22</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>41641</v>
       </c>
       <c r="C152">
@@ -2939,7 +2941,7 @@
       <c r="A153">
         <v>22</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>41641</v>
       </c>
       <c r="C153">
@@ -2956,7 +2958,7 @@
       <c r="A154">
         <v>22</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>41641</v>
       </c>
       <c r="C154">
@@ -2973,7 +2975,7 @@
       <c r="A155">
         <v>22</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>41641</v>
       </c>
       <c r="C155">
@@ -2990,7 +2992,7 @@
       <c r="A156">
         <v>22</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>41641</v>
       </c>
       <c r="C156">
@@ -3007,7 +3009,7 @@
       <c r="A157">
         <v>22</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>41641</v>
       </c>
       <c r="C157">
@@ -3024,7 +3026,7 @@
       <c r="A158">
         <v>22</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>41641</v>
       </c>
       <c r="C158">
@@ -3041,7 +3043,7 @@
       <c r="A159">
         <v>22</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>41641</v>
       </c>
       <c r="C159">
@@ -3058,7 +3060,7 @@
       <c r="A160">
         <v>22</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>41641</v>
       </c>
       <c r="C160">
@@ -3075,7 +3077,7 @@
       <c r="A161">
         <v>22</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>41641</v>
       </c>
       <c r="C161">
@@ -3092,7 +3094,7 @@
       <c r="A162">
         <v>22</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>41641</v>
       </c>
       <c r="C162">
@@ -3109,7 +3111,7 @@
       <c r="A163">
         <v>22</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>41641</v>
       </c>
       <c r="C163">
@@ -3126,7 +3128,7 @@
       <c r="A164">
         <v>22</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>41641</v>
       </c>
       <c r="C164">
@@ -3143,7 +3145,7 @@
       <c r="A165">
         <v>22</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>41641</v>
       </c>
       <c r="C165">
@@ -3160,7 +3162,7 @@
       <c r="A166">
         <v>22</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>41641</v>
       </c>
       <c r="C166">
@@ -3177,7 +3179,7 @@
       <c r="A167">
         <v>22</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>41641</v>
       </c>
       <c r="C167">
@@ -3194,7 +3196,7 @@
       <c r="A168">
         <v>22</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>41641</v>
       </c>
       <c r="C168">
@@ -3211,7 +3213,7 @@
       <c r="A169">
         <v>22</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>41641</v>
       </c>
       <c r="C169">
@@ -3228,7 +3230,7 @@
       <c r="A170">
         <v>22</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>41641</v>
       </c>
       <c r="C170">
@@ -3245,7 +3247,7 @@
       <c r="A171">
         <v>22</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>41641</v>
       </c>
       <c r="C171">
@@ -3262,7 +3264,7 @@
       <c r="A172">
         <v>22</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>41641</v>
       </c>
       <c r="C172">
@@ -3279,7 +3281,7 @@
       <c r="A173">
         <v>22</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>41641</v>
       </c>
       <c r="C173">
@@ -3296,7 +3298,7 @@
       <c r="A174">
         <v>22</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>41641</v>
       </c>
       <c r="C174">
@@ -3313,7 +3315,7 @@
       <c r="A175">
         <v>22</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>41641</v>
       </c>
       <c r="C175">
@@ -3330,7 +3332,7 @@
       <c r="A176">
         <v>22</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>41641</v>
       </c>
       <c r="C176">
@@ -3347,7 +3349,7 @@
       <c r="A177">
         <v>22</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>41641</v>
       </c>
       <c r="C177">
@@ -3364,7 +3366,7 @@
       <c r="A178">
         <v>22</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>41641</v>
       </c>
       <c r="C178">
@@ -3381,7 +3383,7 @@
       <c r="A179">
         <v>22</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>41641</v>
       </c>
       <c r="C179">
@@ -3398,7 +3400,7 @@
       <c r="A180">
         <v>22</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>41641</v>
       </c>
       <c r="C180">
@@ -3415,7 +3417,7 @@
       <c r="A181">
         <v>22</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>41641</v>
       </c>
       <c r="C181">
@@ -3432,7 +3434,7 @@
       <c r="A182">
         <v>22</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>41641</v>
       </c>
       <c r="C182">
@@ -3449,7 +3451,7 @@
       <c r="A183">
         <v>22</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>41641</v>
       </c>
       <c r="C183">
@@ -3466,7 +3468,7 @@
       <c r="A184">
         <v>22</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>41641</v>
       </c>
       <c r="C184">
@@ -3483,7 +3485,7 @@
       <c r="A185">
         <v>22</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>41641</v>
       </c>
       <c r="C185">
@@ -3500,7 +3502,7 @@
       <c r="A186">
         <v>22</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>41641</v>
       </c>
       <c r="C186">
@@ -3517,7 +3519,7 @@
       <c r="A187">
         <v>22</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>41641</v>
       </c>
       <c r="C187">
@@ -3534,7 +3536,7 @@
       <c r="A188">
         <v>22</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>41641</v>
       </c>
       <c r="C188">
@@ -3551,7 +3553,7 @@
       <c r="A189">
         <v>22</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>41641</v>
       </c>
       <c r="C189">
@@ -3568,7 +3570,7 @@
       <c r="A190">
         <v>22</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>41641</v>
       </c>
       <c r="C190">
@@ -3585,7 +3587,7 @@
       <c r="A191">
         <v>22</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>41641</v>
       </c>
       <c r="C191">
@@ -3602,7 +3604,7 @@
       <c r="A192">
         <v>22</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>41641</v>
       </c>
       <c r="C192">
@@ -3619,7 +3621,7 @@
       <c r="A193">
         <v>22</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <v>41641</v>
       </c>
       <c r="C193">
@@ -3636,7 +3638,7 @@
       <c r="A194">
         <v>22</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>41641</v>
       </c>
       <c r="C194">
@@ -3653,7 +3655,7 @@
       <c r="A195">
         <v>22</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <v>41641</v>
       </c>
       <c r="C195">
@@ -3670,7 +3672,7 @@
       <c r="A196">
         <v>22</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <v>41641</v>
       </c>
       <c r="C196">
@@ -3687,7 +3689,7 @@
       <c r="A197">
         <v>22</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <v>41641</v>
       </c>
       <c r="C197">
@@ -3704,7 +3706,7 @@
       <c r="A198">
         <v>22</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <v>41641</v>
       </c>
       <c r="C198">
@@ -3721,7 +3723,7 @@
       <c r="A199">
         <v>22</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <v>41641</v>
       </c>
       <c r="C199">
@@ -3738,7 +3740,7 @@
       <c r="A200">
         <v>22</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <v>41641</v>
       </c>
       <c r="C200">
@@ -3755,7 +3757,7 @@
       <c r="A201">
         <v>22</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <v>41641</v>
       </c>
       <c r="C201">
@@ -3772,7 +3774,7 @@
       <c r="A202">
         <v>22</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>41641</v>
       </c>
       <c r="C202">
@@ -3789,7 +3791,7 @@
       <c r="A203">
         <v>22</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <v>41641</v>
       </c>
       <c r="C203">
@@ -3806,7 +3808,7 @@
       <c r="A204">
         <v>22</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <v>41641</v>
       </c>
       <c r="C204">
@@ -3823,7 +3825,7 @@
       <c r="A205">
         <v>22</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>41641</v>
       </c>
       <c r="C205">
@@ -3840,7 +3842,7 @@
       <c r="A206">
         <v>22</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>41641</v>
       </c>
       <c r="C206">
@@ -3857,7 +3859,7 @@
       <c r="A207">
         <v>22</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <v>41641</v>
       </c>
       <c r="C207">
@@ -3874,7 +3876,7 @@
       <c r="A208">
         <v>22</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <v>41641</v>
       </c>
       <c r="C208">
@@ -3891,7 +3893,7 @@
       <c r="A209">
         <v>22</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <v>41641</v>
       </c>
       <c r="C209">
@@ -3908,7 +3910,7 @@
       <c r="A210">
         <v>22</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <v>41641</v>
       </c>
       <c r="C210">
@@ -3925,7 +3927,7 @@
       <c r="A211">
         <v>22</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <v>41641</v>
       </c>
       <c r="C211">
@@ -3942,7 +3944,7 @@
       <c r="A212">
         <v>22</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <v>41641</v>
       </c>
       <c r="C212">
@@ -3959,7 +3961,7 @@
       <c r="A213">
         <v>22</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>41641</v>
       </c>
       <c r="C213">
@@ -3976,7 +3978,7 @@
       <c r="A214">
         <v>22</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <v>41641</v>
       </c>
       <c r="C214">
@@ -3993,7 +3995,7 @@
       <c r="A215">
         <v>22</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <v>41641</v>
       </c>
       <c r="C215">
@@ -4010,7 +4012,7 @@
       <c r="A216">
         <v>22</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <v>41641</v>
       </c>
       <c r="C216">
@@ -4027,7 +4029,7 @@
       <c r="A217">
         <v>22</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <v>41641</v>
       </c>
       <c r="C217">
@@ -4044,7 +4046,7 @@
       <c r="A218">
         <v>22</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <v>41641</v>
       </c>
       <c r="C218">
@@ -4061,7 +4063,7 @@
       <c r="A219">
         <v>22</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <v>41641</v>
       </c>
       <c r="C219">
@@ -4078,7 +4080,7 @@
       <c r="A220">
         <v>22</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>41641</v>
       </c>
       <c r="C220">
@@ -4095,7 +4097,7 @@
       <c r="A221">
         <v>22</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <v>41641</v>
       </c>
       <c r="C221">
@@ -4112,7 +4114,7 @@
       <c r="A222">
         <v>22</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <v>41641</v>
       </c>
       <c r="C222">
@@ -4129,7 +4131,7 @@
       <c r="A223">
         <v>22</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <v>41641</v>
       </c>
       <c r="C223">
@@ -4146,7 +4148,7 @@
       <c r="A224">
         <v>22</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <v>41641</v>
       </c>
       <c r="C224">
@@ -4163,7 +4165,7 @@
       <c r="A225">
         <v>22</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <v>41641</v>
       </c>
       <c r="C225">
@@ -4180,7 +4182,7 @@
       <c r="A226">
         <v>22</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <v>41641</v>
       </c>
       <c r="C226">
@@ -4197,7 +4199,7 @@
       <c r="A227">
         <v>22</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>41641</v>
       </c>
       <c r="C227">
@@ -4214,7 +4216,7 @@
       <c r="A228">
         <v>22</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <v>41641</v>
       </c>
       <c r="C228">
@@ -4231,7 +4233,7 @@
       <c r="A229">
         <v>22</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <v>41641</v>
       </c>
       <c r="C229">
@@ -4248,7 +4250,7 @@
       <c r="A230">
         <v>22</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <v>41641</v>
       </c>
       <c r="C230">
@@ -4265,7 +4267,7 @@
       <c r="A231">
         <v>22</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="3">
         <v>41641</v>
       </c>
       <c r="C231">
@@ -4282,7 +4284,7 @@
       <c r="A232">
         <v>22</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <v>41642</v>
       </c>
       <c r="C232">
@@ -4299,7 +4301,7 @@
       <c r="A233">
         <v>22</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="3">
         <v>41642</v>
       </c>
       <c r="C233">
@@ -4316,7 +4318,7 @@
       <c r="A234">
         <v>22</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <v>41642</v>
       </c>
       <c r="C234">
@@ -4333,7 +4335,7 @@
       <c r="A235">
         <v>22</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <v>41642</v>
       </c>
       <c r="C235">
@@ -4350,7 +4352,7 @@
       <c r="A236">
         <v>22</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <v>41642</v>
       </c>
       <c r="C236">
@@ -4367,7 +4369,7 @@
       <c r="A237">
         <v>22</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <v>41642</v>
       </c>
       <c r="C237">
@@ -4384,7 +4386,7 @@
       <c r="A238">
         <v>22</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <v>41642</v>
       </c>
       <c r="C238">
@@ -4401,7 +4403,7 @@
       <c r="A239">
         <v>22</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="3">
         <v>41642</v>
       </c>
       <c r="C239">
@@ -4418,7 +4420,7 @@
       <c r="A240">
         <v>22</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="3">
         <v>41642</v>
       </c>
       <c r="C240">
@@ -4435,7 +4437,7 @@
       <c r="A241">
         <v>22</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <v>41642</v>
       </c>
       <c r="C241">
@@ -4452,7 +4454,7 @@
       <c r="A242">
         <v>7</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="3">
         <v>41792</v>
       </c>
       <c r="C242">
@@ -4469,7 +4471,7 @@
       <c r="A243">
         <v>7</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="3">
         <v>41792</v>
       </c>
       <c r="C243">
@@ -4486,7 +4488,7 @@
       <c r="A244">
         <v>7</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="3">
         <v>41792</v>
       </c>
       <c r="C244">
@@ -4503,7 +4505,7 @@
       <c r="A245">
         <v>7</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="3">
         <v>41792</v>
       </c>
       <c r="C245">
@@ -4520,7 +4522,7 @@
       <c r="A246">
         <v>7</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="3">
         <v>41792</v>
       </c>
       <c r="C246">
@@ -4537,7 +4539,7 @@
       <c r="A247">
         <v>7</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="3">
         <v>41792</v>
       </c>
       <c r="C247">
@@ -4554,7 +4556,7 @@
       <c r="A248">
         <v>7</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="3">
         <v>41792</v>
       </c>
       <c r="C248">
@@ -4571,7 +4573,7 @@
       <c r="A249">
         <v>7</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="3">
         <v>41792</v>
       </c>
       <c r="C249">
@@ -4588,7 +4590,7 @@
       <c r="A250">
         <v>7</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="3">
         <v>41792</v>
       </c>
       <c r="C250">
@@ -4605,7 +4607,7 @@
       <c r="A251">
         <v>7</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="3">
         <v>41792</v>
       </c>
       <c r="C251">
@@ -4622,7 +4624,7 @@
       <c r="A252">
         <v>7</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="3">
         <v>41792</v>
       </c>
       <c r="C252">
@@ -4639,7 +4641,7 @@
       <c r="A253">
         <v>7</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="3">
         <v>41792</v>
       </c>
       <c r="C253">
@@ -4656,7 +4658,7 @@
       <c r="A254">
         <v>7</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="3">
         <v>41792</v>
       </c>
       <c r="C254">
@@ -4673,7 +4675,7 @@
       <c r="A255">
         <v>7</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="3">
         <v>41792</v>
       </c>
       <c r="C255">
@@ -4690,7 +4692,7 @@
       <c r="A256">
         <v>7</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="3">
         <v>41792</v>
       </c>
       <c r="C256">
@@ -4707,7 +4709,7 @@
       <c r="A257">
         <v>7</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="3">
         <v>41792</v>
       </c>
       <c r="C257">
@@ -4724,7 +4726,7 @@
       <c r="A258">
         <v>7</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="3">
         <v>41792</v>
       </c>
       <c r="C258">
@@ -4741,7 +4743,7 @@
       <c r="A259">
         <v>7</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="3">
         <v>41792</v>
       </c>
       <c r="C259">
@@ -4758,7 +4760,7 @@
       <c r="A260">
         <v>7</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="3">
         <v>41792</v>
       </c>
       <c r="C260">
@@ -4775,7 +4777,7 @@
       <c r="A261">
         <v>7</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="3">
         <v>41792</v>
       </c>
       <c r="C261">
@@ -4792,7 +4794,7 @@
       <c r="A262">
         <v>7</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="3">
         <v>41792</v>
       </c>
       <c r="C262">
@@ -4809,7 +4811,7 @@
       <c r="A263">
         <v>7</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="3">
         <v>41792</v>
       </c>
       <c r="C263">
@@ -4826,7 +4828,7 @@
       <c r="A264">
         <v>7</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="3">
         <v>41792</v>
       </c>
       <c r="C264">
@@ -4843,7 +4845,7 @@
       <c r="A265">
         <v>7</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="3">
         <v>41792</v>
       </c>
       <c r="C265">
@@ -4860,7 +4862,7 @@
       <c r="A266">
         <v>7</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="3">
         <v>41792</v>
       </c>
       <c r="C266">
@@ -4877,7 +4879,7 @@
       <c r="A267">
         <v>7</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="3">
         <v>41792</v>
       </c>
       <c r="C267">
@@ -4894,7 +4896,7 @@
       <c r="A268">
         <v>7</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="3">
         <v>41792</v>
       </c>
       <c r="C268">
@@ -4911,7 +4913,7 @@
       <c r="A269">
         <v>7</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="3">
         <v>41792</v>
       </c>
       <c r="C269">
@@ -4928,7 +4930,7 @@
       <c r="A270">
         <v>7</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="3">
         <v>41792</v>
       </c>
       <c r="C270">
@@ -4945,7 +4947,7 @@
       <c r="A271">
         <v>7</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="3">
         <v>41792</v>
       </c>
       <c r="C271">
@@ -4962,7 +4964,7 @@
       <c r="A272">
         <v>7</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="3">
         <v>41792</v>
       </c>
       <c r="C272">
@@ -4979,7 +4981,7 @@
       <c r="A273">
         <v>7</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="3">
         <v>41792</v>
       </c>
       <c r="C273">
@@ -4996,7 +4998,7 @@
       <c r="A274">
         <v>7</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="3">
         <v>41792</v>
       </c>
       <c r="C274">
@@ -5013,7 +5015,7 @@
       <c r="A275">
         <v>7</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="3">
         <v>41792</v>
       </c>
       <c r="C275">
@@ -5030,7 +5032,7 @@
       <c r="A276">
         <v>7</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="3">
         <v>41792</v>
       </c>
       <c r="C276">
@@ -5047,7 +5049,7 @@
       <c r="A277">
         <v>7</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="3">
         <v>41792</v>
       </c>
       <c r="C277">
@@ -5064,7 +5066,7 @@
       <c r="A278">
         <v>7</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="3">
         <v>41792</v>
       </c>
       <c r="C278">
@@ -5081,7 +5083,7 @@
       <c r="A279">
         <v>7</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="3">
         <v>41792</v>
       </c>
       <c r="C279">
@@ -5098,7 +5100,7 @@
       <c r="A280">
         <v>7</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="3">
         <v>41792</v>
       </c>
       <c r="C280">
@@ -5115,7 +5117,7 @@
       <c r="A281">
         <v>7</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="3">
         <v>41792</v>
       </c>
       <c r="C281">
@@ -5132,7 +5134,7 @@
       <c r="A282">
         <v>7</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="3">
         <v>41792</v>
       </c>
       <c r="C282">
@@ -5149,7 +5151,7 @@
       <c r="A283">
         <v>7</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="3">
         <v>41792</v>
       </c>
       <c r="C283">
@@ -5166,7 +5168,7 @@
       <c r="A284">
         <v>7</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="3">
         <v>41792</v>
       </c>
       <c r="C284">
@@ -5183,7 +5185,7 @@
       <c r="A285">
         <v>7</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="3">
         <v>41792</v>
       </c>
       <c r="C285">
@@ -5200,7 +5202,7 @@
       <c r="A286">
         <v>7</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="3">
         <v>41792</v>
       </c>
       <c r="C286">
@@ -5217,7 +5219,7 @@
       <c r="A287">
         <v>7</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="3">
         <v>41792</v>
       </c>
       <c r="C287">
@@ -5234,7 +5236,7 @@
       <c r="A288">
         <v>7</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="3">
         <v>41792</v>
       </c>
       <c r="C288">
@@ -5251,7 +5253,7 @@
       <c r="A289">
         <v>7</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="3">
         <v>41792</v>
       </c>
       <c r="C289">
@@ -5268,7 +5270,7 @@
       <c r="A290">
         <v>7</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="3">
         <v>41792</v>
       </c>
       <c r="C290">
@@ -5285,7 +5287,7 @@
       <c r="A291">
         <v>7</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="3">
         <v>41792</v>
       </c>
       <c r="C291">
@@ -5302,7 +5304,7 @@
       <c r="A292">
         <v>7</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="3">
         <v>41792</v>
       </c>
       <c r="C292">
@@ -5319,7 +5321,7 @@
       <c r="A293">
         <v>7</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="3">
         <v>41792</v>
       </c>
       <c r="C293">
@@ -5336,7 +5338,7 @@
       <c r="A294">
         <v>7</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="3">
         <v>41792</v>
       </c>
       <c r="C294">
@@ -5353,7 +5355,7 @@
       <c r="A295">
         <v>7</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="3">
         <v>41792</v>
       </c>
       <c r="C295">
@@ -5370,7 +5372,7 @@
       <c r="A296">
         <v>7</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="3">
         <v>41792</v>
       </c>
       <c r="C296">
@@ -5387,7 +5389,7 @@
       <c r="A297">
         <v>7</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="3">
         <v>41792</v>
       </c>
       <c r="C297">
@@ -5404,7 +5406,7 @@
       <c r="A298">
         <v>7</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="3">
         <v>41792</v>
       </c>
       <c r="C298">
@@ -5421,7 +5423,7 @@
       <c r="A299">
         <v>7</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="3">
         <v>41792</v>
       </c>
       <c r="C299">
@@ -5438,7 +5440,7 @@
       <c r="A300">
         <v>7</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="3">
         <v>41792</v>
       </c>
       <c r="C300">
@@ -5455,7 +5457,7 @@
       <c r="A301">
         <v>7</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="3">
         <v>41792</v>
       </c>
       <c r="C301">
@@ -5472,7 +5474,7 @@
       <c r="A302">
         <v>7</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="3">
         <v>41792</v>
       </c>
       <c r="C302">
@@ -5489,7 +5491,7 @@
       <c r="A303">
         <v>7</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="3">
         <v>41792</v>
       </c>
       <c r="C303">
@@ -5506,7 +5508,7 @@
       <c r="A304">
         <v>7</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="3">
         <v>41792</v>
       </c>
       <c r="C304">
@@ -5523,7 +5525,7 @@
       <c r="A305">
         <v>7</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="3">
         <v>41792</v>
       </c>
       <c r="C305">
@@ -5540,7 +5542,7 @@
       <c r="A306">
         <v>7</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="3">
         <v>41792</v>
       </c>
       <c r="C306">
@@ -5557,7 +5559,7 @@
       <c r="A307">
         <v>7</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="3">
         <v>41792</v>
       </c>
       <c r="C307">
@@ -5574,7 +5576,7 @@
       <c r="A308">
         <v>7</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="3">
         <v>41792</v>
       </c>
       <c r="C308">
@@ -5591,7 +5593,7 @@
       <c r="A309">
         <v>7</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="3">
         <v>41792</v>
       </c>
       <c r="C309">
@@ -5608,7 +5610,7 @@
       <c r="A310">
         <v>7</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="3">
         <v>41792</v>
       </c>
       <c r="C310">
@@ -5625,7 +5627,7 @@
       <c r="A311">
         <v>7</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="3">
         <v>41792</v>
       </c>
       <c r="C311">
@@ -5642,7 +5644,7 @@
       <c r="A312">
         <v>7</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="3">
         <v>41792</v>
       </c>
       <c r="C312">
@@ -5659,7 +5661,7 @@
       <c r="A313">
         <v>7</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="3">
         <v>41792</v>
       </c>
       <c r="C313">
@@ -5676,7 +5678,7 @@
       <c r="A314">
         <v>7</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="3">
         <v>41792</v>
       </c>
       <c r="C314">
@@ -5693,7 +5695,7 @@
       <c r="A315">
         <v>7</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="3">
         <v>41792</v>
       </c>
       <c r="C315">
@@ -5710,7 +5712,7 @@
       <c r="A316">
         <v>7</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="3">
         <v>41792</v>
       </c>
       <c r="C316">
@@ -5727,7 +5729,7 @@
       <c r="A317">
         <v>7</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="3">
         <v>41792</v>
       </c>
       <c r="C317">
@@ -5744,7 +5746,7 @@
       <c r="A318">
         <v>7</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="3">
         <v>41792</v>
       </c>
       <c r="C318">
@@ -5761,7 +5763,7 @@
       <c r="A319">
         <v>7</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="3">
         <v>41792</v>
       </c>
       <c r="C319">
@@ -5778,7 +5780,7 @@
       <c r="A320">
         <v>7</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="3">
         <v>41792</v>
       </c>
       <c r="C320">
@@ -5795,7 +5797,7 @@
       <c r="A321">
         <v>7</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="3">
         <v>41792</v>
       </c>
       <c r="C321">
@@ -5812,7 +5814,7 @@
       <c r="A322">
         <v>7</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="3">
         <v>41792</v>
       </c>
       <c r="C322">
@@ -5829,7 +5831,7 @@
       <c r="A323">
         <v>7</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="3">
         <v>41792</v>
       </c>
       <c r="C323">
@@ -5846,7 +5848,7 @@
       <c r="A324">
         <v>7</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="3">
         <v>41792</v>
       </c>
       <c r="C324">
@@ -5863,7 +5865,7 @@
       <c r="A325">
         <v>7</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="3">
         <v>41792</v>
       </c>
       <c r="C325">
@@ -5880,7 +5882,7 @@
       <c r="A326">
         <v>7</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="3">
         <v>41792</v>
       </c>
       <c r="C326">
@@ -5897,7 +5899,7 @@
       <c r="A327">
         <v>7</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="3">
         <v>41792</v>
       </c>
       <c r="C327">
@@ -5914,7 +5916,7 @@
       <c r="A328">
         <v>7</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="3">
         <v>41792</v>
       </c>
       <c r="C328">
@@ -5931,7 +5933,7 @@
       <c r="A329">
         <v>7</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="3">
         <v>41792</v>
       </c>
       <c r="C329">
@@ -5948,7 +5950,7 @@
       <c r="A330">
         <v>7</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="3">
         <v>41792</v>
       </c>
       <c r="C330">
@@ -5965,7 +5967,7 @@
       <c r="A331">
         <v>7</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="3">
         <v>41792</v>
       </c>
       <c r="C331">
@@ -5982,7 +5984,7 @@
       <c r="A332">
         <v>7</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="3">
         <v>41792</v>
       </c>
       <c r="C332">
@@ -5999,7 +6001,7 @@
       <c r="A333">
         <v>7</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="3">
         <v>41792</v>
       </c>
       <c r="C333">
@@ -6016,7 +6018,7 @@
       <c r="A334">
         <v>7</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="3">
         <v>41792</v>
       </c>
       <c r="C334">
@@ -6033,7 +6035,7 @@
       <c r="A335">
         <v>7</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="3">
         <v>41792</v>
       </c>
       <c r="C335">
@@ -6050,7 +6052,7 @@
       <c r="A336">
         <v>7</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="3">
         <v>41792</v>
       </c>
       <c r="C336">
@@ -6067,7 +6069,7 @@
       <c r="A337">
         <v>7</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="3">
         <v>41792</v>
       </c>
       <c r="C337">
@@ -6084,7 +6086,7 @@
       <c r="A338">
         <v>7</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="3">
         <v>41792</v>
       </c>
       <c r="C338">
@@ -6101,7 +6103,7 @@
       <c r="A339">
         <v>7</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="3">
         <v>41792</v>
       </c>
       <c r="C339">
@@ -6118,7 +6120,7 @@
       <c r="A340">
         <v>7</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="3">
         <v>41792</v>
       </c>
       <c r="C340">
@@ -6135,7 +6137,7 @@
       <c r="A341">
         <v>7</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="3">
         <v>41792</v>
       </c>
       <c r="C341">
@@ -6152,7 +6154,7 @@
       <c r="A342">
         <v>7</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="3">
         <v>41792</v>
       </c>
       <c r="C342">
@@ -6169,7 +6171,7 @@
       <c r="A343">
         <v>7</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="3">
         <v>41792</v>
       </c>
       <c r="C343">
@@ -6186,7 +6188,7 @@
       <c r="A344">
         <v>7</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="3">
         <v>41792</v>
       </c>
       <c r="C344">
@@ -6203,7 +6205,7 @@
       <c r="A345">
         <v>7</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="3">
         <v>41792</v>
       </c>
       <c r="C345">
@@ -6220,7 +6222,7 @@
       <c r="A346">
         <v>7</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="3">
         <v>41792</v>
       </c>
       <c r="C346">
@@ -6237,7 +6239,7 @@
       <c r="A347">
         <v>7</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="3">
         <v>41792</v>
       </c>
       <c r="C347">
@@ -6254,7 +6256,7 @@
       <c r="A348">
         <v>7</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="3">
         <v>41792</v>
       </c>
       <c r="C348">
@@ -6271,7 +6273,7 @@
       <c r="A349">
         <v>7</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="3">
         <v>41792</v>
       </c>
       <c r="C349">
@@ -6288,7 +6290,7 @@
       <c r="A350">
         <v>7</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="3">
         <v>41792</v>
       </c>
       <c r="C350">
@@ -6305,7 +6307,7 @@
       <c r="A351">
         <v>7</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="3">
         <v>41792</v>
       </c>
       <c r="C351">
@@ -6322,7 +6324,7 @@
       <c r="A352">
         <v>7</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="3">
         <v>41792</v>
       </c>
       <c r="C352">
@@ -6339,7 +6341,7 @@
       <c r="A353">
         <v>7</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="3">
         <v>41792</v>
       </c>
       <c r="C353">
@@ -6356,7 +6358,7 @@
       <c r="A354">
         <v>7</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="3">
         <v>41792</v>
       </c>
       <c r="C354">
@@ -6373,7 +6375,7 @@
       <c r="A355">
         <v>7</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="3">
         <v>41792</v>
       </c>
       <c r="C355">
@@ -6390,7 +6392,7 @@
       <c r="A356">
         <v>7</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="3">
         <v>41792</v>
       </c>
       <c r="C356">
@@ -6407,7 +6409,7 @@
       <c r="A357">
         <v>7</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="3">
         <v>41792</v>
       </c>
       <c r="C357">
@@ -6424,7 +6426,7 @@
       <c r="A358">
         <v>7</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="3">
         <v>41792</v>
       </c>
       <c r="C358">
@@ -6441,7 +6443,7 @@
       <c r="A359">
         <v>7</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="3">
         <v>41792</v>
       </c>
       <c r="C359">
@@ -6458,7 +6460,7 @@
       <c r="A360">
         <v>7</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="3">
         <v>41792</v>
       </c>
       <c r="C360">
@@ -6475,7 +6477,7 @@
       <c r="A361">
         <v>7</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="3">
         <v>41792</v>
       </c>
       <c r="C361">
@@ -6492,7 +6494,7 @@
       <c r="A362">
         <v>7</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="3">
         <v>41792</v>
       </c>
       <c r="C362">
@@ -6509,7 +6511,7 @@
       <c r="A363">
         <v>7</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="3">
         <v>41792</v>
       </c>
       <c r="C363">
@@ -6526,7 +6528,7 @@
       <c r="A364">
         <v>7</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="3">
         <v>41792</v>
       </c>
       <c r="C364">
@@ -6543,7 +6545,7 @@
       <c r="A365">
         <v>7</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="3">
         <v>41792</v>
       </c>
       <c r="C365">
@@ -6560,7 +6562,7 @@
       <c r="A366">
         <v>7</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="3">
         <v>41792</v>
       </c>
       <c r="C366">
@@ -6577,7 +6579,7 @@
       <c r="A367">
         <v>7</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="3">
         <v>41792</v>
       </c>
       <c r="C367">
@@ -6594,7 +6596,7 @@
       <c r="A368">
         <v>7</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="3">
         <v>41792</v>
       </c>
       <c r="C368">
@@ -6611,7 +6613,7 @@
       <c r="A369">
         <v>7</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="3">
         <v>41792</v>
       </c>
       <c r="C369">
@@ -6628,7 +6630,7 @@
       <c r="A370">
         <v>7</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="3">
         <v>41792</v>
       </c>
       <c r="C370">
@@ -6645,7 +6647,7 @@
       <c r="A371">
         <v>7</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="3">
         <v>41792</v>
       </c>
       <c r="C371">
@@ -6662,7 +6664,7 @@
       <c r="A372">
         <v>7</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="3">
         <v>41792</v>
       </c>
       <c r="C372">
@@ -6679,7 +6681,7 @@
       <c r="A373">
         <v>7</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="3">
         <v>41792</v>
       </c>
       <c r="C373">
@@ -6696,7 +6698,7 @@
       <c r="A374">
         <v>7</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="3">
         <v>41792</v>
       </c>
       <c r="C374">
@@ -6713,7 +6715,7 @@
       <c r="A375">
         <v>7</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="3">
         <v>41792</v>
       </c>
       <c r="C375">
@@ -6730,7 +6732,7 @@
       <c r="A376">
         <v>7</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="3">
         <v>41792</v>
       </c>
       <c r="C376">
@@ -6747,7 +6749,7 @@
       <c r="A377">
         <v>7</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="3">
         <v>41792</v>
       </c>
       <c r="C377">
@@ -6764,7 +6766,7 @@
       <c r="A378">
         <v>7</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="3">
         <v>41792</v>
       </c>
       <c r="C378">
@@ -6781,7 +6783,7 @@
       <c r="A379">
         <v>7</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="3">
         <v>41792</v>
       </c>
       <c r="C379">
@@ -6798,7 +6800,7 @@
       <c r="A380">
         <v>7</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="3">
         <v>41792</v>
       </c>
       <c r="C380">
@@ -6815,7 +6817,7 @@
       <c r="A381">
         <v>7</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="3">
         <v>41792</v>
       </c>
       <c r="C381">
@@ -6832,7 +6834,7 @@
       <c r="A382">
         <v>7</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="3">
         <v>41792</v>
       </c>
       <c r="C382">
@@ -6849,7 +6851,7 @@
       <c r="A383">
         <v>7</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="3">
         <v>41792</v>
       </c>
       <c r="C383">
@@ -6866,7 +6868,7 @@
       <c r="A384">
         <v>26</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="3">
         <v>41640</v>
       </c>
       <c r="C384">
@@ -6883,7 +6885,7 @@
       <c r="A385">
         <v>26</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="3">
         <v>41640</v>
       </c>
       <c r="C385">
@@ -6900,7 +6902,7 @@
       <c r="A386">
         <v>26</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="3">
         <v>41640</v>
       </c>
       <c r="C386">
@@ -6917,7 +6919,7 @@
       <c r="A387">
         <v>26</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="3">
         <v>41640</v>
       </c>
       <c r="C387">
@@ -6934,7 +6936,7 @@
       <c r="A388">
         <v>26</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="3">
         <v>41640</v>
       </c>
       <c r="C388">
@@ -6951,7 +6953,7 @@
       <c r="A389">
         <v>26</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="3">
         <v>41640</v>
       </c>
       <c r="C389">
@@ -6968,7 +6970,7 @@
       <c r="A390">
         <v>26</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="3">
         <v>41640</v>
       </c>
       <c r="C390">
@@ -6985,7 +6987,7 @@
       <c r="A391">
         <v>26</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="3">
         <v>41640</v>
       </c>
       <c r="C391">
@@ -7002,7 +7004,7 @@
       <c r="A392">
         <v>26</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="3">
         <v>41640</v>
       </c>
       <c r="C392">
@@ -7019,7 +7021,7 @@
       <c r="A393">
         <v>26</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="3">
         <v>41640</v>
       </c>
       <c r="C393">
@@ -7036,7 +7038,7 @@
       <c r="A394">
         <v>26</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="3">
         <v>41640</v>
       </c>
       <c r="C394">
@@ -7053,7 +7055,7 @@
       <c r="A395">
         <v>26</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="3">
         <v>41640</v>
       </c>
       <c r="C395">
@@ -7070,7 +7072,7 @@
       <c r="A396">
         <v>26</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="3">
         <v>41640</v>
       </c>
       <c r="C396">
@@ -7087,7 +7089,7 @@
       <c r="A397">
         <v>26</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="3">
         <v>41640</v>
       </c>
       <c r="C397">
@@ -7104,7 +7106,7 @@
       <c r="A398">
         <v>26</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="3">
         <v>41640</v>
       </c>
       <c r="C398">
@@ -7121,7 +7123,7 @@
       <c r="A399">
         <v>26</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="3">
         <v>41640</v>
       </c>
       <c r="C399">
@@ -7138,7 +7140,7 @@
       <c r="A400">
         <v>26</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="3">
         <v>41640</v>
       </c>
       <c r="C400">
@@ -7155,7 +7157,7 @@
       <c r="A401">
         <v>26</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="3">
         <v>41640</v>
       </c>
       <c r="C401">
@@ -7172,7 +7174,7 @@
       <c r="A402">
         <v>26</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="3">
         <v>41640</v>
       </c>
       <c r="C402">
@@ -7189,7 +7191,7 @@
       <c r="A403">
         <v>26</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="3">
         <v>41640</v>
       </c>
       <c r="C403">
@@ -7206,7 +7208,7 @@
       <c r="A404">
         <v>26</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="3">
         <v>41640</v>
       </c>
       <c r="C404">
@@ -7223,7 +7225,7 @@
       <c r="A405">
         <v>26</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="3">
         <v>41640</v>
       </c>
       <c r="C405">
@@ -7240,7 +7242,7 @@
       <c r="A406">
         <v>26</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="3">
         <v>41640</v>
       </c>
       <c r="C406">
@@ -7257,7 +7259,7 @@
       <c r="A407">
         <v>26</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="3">
         <v>41640</v>
       </c>
       <c r="C407">
@@ -7274,7 +7276,7 @@
       <c r="A408">
         <v>26</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="3">
         <v>41640</v>
       </c>
       <c r="C408">
@@ -7291,7 +7293,7 @@
       <c r="A409">
         <v>26</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="3">
         <v>41640</v>
       </c>
       <c r="C409">
@@ -7308,7 +7310,7 @@
       <c r="A410">
         <v>26</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="3">
         <v>41640</v>
       </c>
       <c r="C410">
@@ -7325,7 +7327,7 @@
       <c r="A411">
         <v>26</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="3">
         <v>41640</v>
       </c>
       <c r="C411">
@@ -7342,7 +7344,7 @@
       <c r="A412">
         <v>26</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="3">
         <v>41640</v>
       </c>
       <c r="C412">
@@ -7359,7 +7361,7 @@
       <c r="A413">
         <v>26</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="3">
         <v>41640</v>
       </c>
       <c r="C413">
@@ -7376,7 +7378,7 @@
       <c r="A414">
         <v>26</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="3">
         <v>41640</v>
       </c>
       <c r="C414">
@@ -7393,7 +7395,7 @@
       <c r="A415">
         <v>26</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="3">
         <v>41640</v>
       </c>
       <c r="C415">
@@ -7410,7 +7412,7 @@
       <c r="A416">
         <v>26</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="3">
         <v>41640</v>
       </c>
       <c r="C416">
@@ -7427,7 +7429,7 @@
       <c r="A417">
         <v>26</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="3">
         <v>41640</v>
       </c>
       <c r="C417">
@@ -7444,7 +7446,7 @@
       <c r="A418">
         <v>26</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="3">
         <v>41640</v>
       </c>
       <c r="C418">
@@ -7461,7 +7463,7 @@
       <c r="A419">
         <v>26</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="3">
         <v>41640</v>
       </c>
       <c r="C419">
@@ -7478,7 +7480,7 @@
       <c r="A420">
         <v>26</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="3">
         <v>41640</v>
       </c>
       <c r="C420">
@@ -7495,7 +7497,7 @@
       <c r="A421">
         <v>26</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="3">
         <v>41640</v>
       </c>
       <c r="C421">
@@ -7512,7 +7514,7 @@
       <c r="A422">
         <v>26</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="3">
         <v>41640</v>
       </c>
       <c r="C422">
@@ -7529,7 +7531,7 @@
       <c r="A423">
         <v>26</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="3">
         <v>41640</v>
       </c>
       <c r="C423">
@@ -7546,7 +7548,7 @@
       <c r="A424">
         <v>26</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="3">
         <v>41640</v>
       </c>
       <c r="C424">
@@ -7563,7 +7565,7 @@
       <c r="A425">
         <v>26</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="3">
         <v>41640</v>
       </c>
       <c r="C425">
@@ -7580,7 +7582,7 @@
       <c r="A426">
         <v>26</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="3">
         <v>41640</v>
       </c>
       <c r="C426">
@@ -7597,7 +7599,7 @@
       <c r="A427">
         <v>26</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="3">
         <v>41640</v>
       </c>
       <c r="C427">
@@ -7614,7 +7616,7 @@
       <c r="A428">
         <v>26</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="3">
         <v>41640</v>
       </c>
       <c r="C428">
@@ -7631,7 +7633,7 @@
       <c r="A429">
         <v>26</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="3">
         <v>41640</v>
       </c>
       <c r="C429">
@@ -7648,7 +7650,7 @@
       <c r="A430">
         <v>26</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="3">
         <v>41640</v>
       </c>
       <c r="C430">
@@ -7665,7 +7667,7 @@
       <c r="A431">
         <v>26</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="3">
         <v>41640</v>
       </c>
       <c r="C431">
@@ -7682,7 +7684,7 @@
       <c r="A432">
         <v>26</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="3">
         <v>41640</v>
       </c>
       <c r="C432">
@@ -7699,7 +7701,7 @@
       <c r="A433">
         <v>26</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="3">
         <v>41640</v>
       </c>
       <c r="C433">
@@ -7716,7 +7718,7 @@
       <c r="A434">
         <v>26</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="3">
         <v>41640</v>
       </c>
       <c r="C434">
@@ -7733,7 +7735,7 @@
       <c r="A435">
         <v>26</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="3">
         <v>41640</v>
       </c>
       <c r="C435">
@@ -7750,7 +7752,7 @@
       <c r="A436">
         <v>26</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="3">
         <v>41640</v>
       </c>
       <c r="C436">
@@ -7767,7 +7769,7 @@
       <c r="A437">
         <v>26</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="3">
         <v>41640</v>
       </c>
       <c r="C437">
@@ -7784,7 +7786,7 @@
       <c r="A438">
         <v>26</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="3">
         <v>41640</v>
       </c>
       <c r="C438">
@@ -7801,7 +7803,7 @@
       <c r="A439">
         <v>26</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="3">
         <v>41640</v>
       </c>
       <c r="C439">
@@ -7818,7 +7820,7 @@
       <c r="A440">
         <v>26</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="3">
         <v>41640</v>
       </c>
       <c r="C440">
@@ -7835,7 +7837,7 @@
       <c r="A441">
         <v>26</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="3">
         <v>41640</v>
       </c>
       <c r="C441">
@@ -7852,7 +7854,7 @@
       <c r="A442">
         <v>26</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="3">
         <v>41640</v>
       </c>
       <c r="C442">
@@ -7869,7 +7871,7 @@
       <c r="A443">
         <v>26</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="3">
         <v>41640</v>
       </c>
       <c r="C443">
@@ -7886,7 +7888,7 @@
       <c r="A444">
         <v>26</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="3">
         <v>41640</v>
       </c>
       <c r="C444">
@@ -7903,7 +7905,7 @@
       <c r="A445">
         <v>26</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="3">
         <v>41640</v>
       </c>
       <c r="C445">
@@ -7920,7 +7922,7 @@
       <c r="A446">
         <v>26</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="3">
         <v>41640</v>
       </c>
       <c r="C446">
@@ -7937,7 +7939,7 @@
       <c r="A447">
         <v>26</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="3">
         <v>41640</v>
       </c>
       <c r="C447">
@@ -7954,7 +7956,7 @@
       <c r="A448">
         <v>26</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="3">
         <v>41640</v>
       </c>
       <c r="C448">
@@ -7971,7 +7973,7 @@
       <c r="A449">
         <v>26</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="3">
         <v>41640</v>
       </c>
       <c r="C449">
@@ -7988,7 +7990,7 @@
       <c r="A450">
         <v>26</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="3">
         <v>41640</v>
       </c>
       <c r="C450">
@@ -8005,7 +8007,7 @@
       <c r="A451">
         <v>26</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="3">
         <v>41640</v>
       </c>
       <c r="C451">
@@ -8022,7 +8024,7 @@
       <c r="A452">
         <v>26</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="3">
         <v>41640</v>
       </c>
       <c r="C452">
@@ -8039,7 +8041,7 @@
       <c r="A453">
         <v>26</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="3">
         <v>41640</v>
       </c>
       <c r="C453">
@@ -8056,7 +8058,7 @@
       <c r="A454">
         <v>26</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="3">
         <v>41640</v>
       </c>
       <c r="C454">
@@ -8073,7 +8075,7 @@
       <c r="A455">
         <v>26</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="3">
         <v>41640</v>
       </c>
       <c r="C455">
@@ -8090,7 +8092,7 @@
       <c r="A456">
         <v>26</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="3">
         <v>41640</v>
       </c>
       <c r="C456">
@@ -8107,7 +8109,7 @@
       <c r="A457">
         <v>26</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="3">
         <v>41640</v>
       </c>
       <c r="C457">
@@ -8124,7 +8126,7 @@
       <c r="A458">
         <v>26</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="3">
         <v>41640</v>
       </c>
       <c r="C458">
@@ -8141,7 +8143,7 @@
       <c r="A459">
         <v>26</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="3">
         <v>41640</v>
       </c>
       <c r="C459">
@@ -8158,7 +8160,7 @@
       <c r="A460">
         <v>26</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="3">
         <v>41640</v>
       </c>
       <c r="C460">
@@ -8175,7 +8177,7 @@
       <c r="A461">
         <v>26</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="3">
         <v>41640</v>
       </c>
       <c r="C461">
@@ -8192,7 +8194,7 @@
       <c r="A462">
         <v>26</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="3">
         <v>41640</v>
       </c>
       <c r="C462">
@@ -8209,7 +8211,7 @@
       <c r="A463">
         <v>26</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="3">
         <v>41640</v>
       </c>
       <c r="C463">
@@ -8226,7 +8228,7 @@
       <c r="A464">
         <v>26</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="3">
         <v>41640</v>
       </c>
       <c r="C464">
@@ -8243,7 +8245,7 @@
       <c r="A465">
         <v>26</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="3">
         <v>41640</v>
       </c>
       <c r="C465">
@@ -8260,7 +8262,7 @@
       <c r="A466">
         <v>26</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="3">
         <v>41640</v>
       </c>
       <c r="C466">
@@ -8277,7 +8279,7 @@
       <c r="A467">
         <v>26</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="3">
         <v>41640</v>
       </c>
       <c r="C467">
@@ -8294,7 +8296,7 @@
       <c r="A468">
         <v>26</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="3">
         <v>41640</v>
       </c>
       <c r="C468">
@@ -8311,7 +8313,7 @@
       <c r="A469">
         <v>26</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="3">
         <v>41640</v>
       </c>
       <c r="C469">
@@ -8328,7 +8330,7 @@
       <c r="A470">
         <v>26</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="3">
         <v>41640</v>
       </c>
       <c r="C470">
@@ -8345,7 +8347,7 @@
       <c r="A471">
         <v>26</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="3">
         <v>41640</v>
       </c>
       <c r="C471">
@@ -8362,7 +8364,7 @@
       <c r="A472">
         <v>26</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="3">
         <v>41640</v>
       </c>
       <c r="C472">
@@ -8379,7 +8381,7 @@
       <c r="A473">
         <v>26</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="3">
         <v>41640</v>
       </c>
       <c r="C473">
@@ -8396,7 +8398,7 @@
       <c r="A474">
         <v>26</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="3">
         <v>41640</v>
       </c>
       <c r="C474">
@@ -8413,7 +8415,7 @@
       <c r="A475">
         <v>26</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="3">
         <v>41640</v>
       </c>
       <c r="C475">
@@ -8430,7 +8432,7 @@
       <c r="A476">
         <v>26</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="3">
         <v>41640</v>
       </c>
       <c r="C476">
@@ -8447,7 +8449,7 @@
       <c r="A477">
         <v>26</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="3">
         <v>41640</v>
       </c>
       <c r="C477">
@@ -8464,7 +8466,7 @@
       <c r="A478">
         <v>26</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="3">
         <v>41640</v>
       </c>
       <c r="C478">
@@ -8481,7 +8483,7 @@
       <c r="A479">
         <v>26</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="3">
         <v>41640</v>
       </c>
       <c r="C479">
@@ -8498,7 +8500,7 @@
       <c r="A480">
         <v>26</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="3">
         <v>41640</v>
       </c>
       <c r="C480">
@@ -8515,7 +8517,7 @@
       <c r="A481">
         <v>26</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="3">
         <v>41640</v>
       </c>
       <c r="C481">
@@ -8532,7 +8534,7 @@
       <c r="A482">
         <v>26</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="3">
         <v>41640</v>
       </c>
       <c r="C482">
@@ -8549,7 +8551,7 @@
       <c r="A483">
         <v>26</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="3">
         <v>41640</v>
       </c>
       <c r="C483">
@@ -8566,7 +8568,7 @@
       <c r="A484">
         <v>26</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="3">
         <v>41640</v>
       </c>
       <c r="C484">
@@ -8583,7 +8585,7 @@
       <c r="A485">
         <v>26</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="3">
         <v>41640</v>
       </c>
       <c r="C485">
@@ -8600,7 +8602,7 @@
       <c r="A486">
         <v>26</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="3">
         <v>41640</v>
       </c>
       <c r="C486">
@@ -8617,7 +8619,7 @@
       <c r="A487">
         <v>26</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="3">
         <v>41640</v>
       </c>
       <c r="C487">
@@ -8634,7 +8636,7 @@
       <c r="A488">
         <v>26</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="3">
         <v>41640</v>
       </c>
       <c r="C488">
@@ -8651,7 +8653,7 @@
       <c r="A489">
         <v>26</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="3">
         <v>41640</v>
       </c>
       <c r="C489">
@@ -8668,7 +8670,7 @@
       <c r="A490">
         <v>26</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="3">
         <v>41640</v>
       </c>
       <c r="C490">
@@ -8685,7 +8687,7 @@
       <c r="A491">
         <v>26</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="3">
         <v>41640</v>
       </c>
       <c r="C491">
@@ -8702,7 +8704,7 @@
       <c r="A492">
         <v>26</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="3">
         <v>41640</v>
       </c>
       <c r="C492">
@@ -8719,7 +8721,7 @@
       <c r="A493">
         <v>26</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="3">
         <v>41640</v>
       </c>
       <c r="C493">
@@ -8736,7 +8738,7 @@
       <c r="A494">
         <v>26</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="3">
         <v>41640</v>
       </c>
       <c r="C494">
@@ -8753,7 +8755,7 @@
       <c r="A495">
         <v>26</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="3">
         <v>41640</v>
       </c>
       <c r="C495">
@@ -8770,7 +8772,7 @@
       <c r="A496">
         <v>26</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="3">
         <v>41640</v>
       </c>
       <c r="C496">
@@ -8787,7 +8789,7 @@
       <c r="A497">
         <v>26</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="3">
         <v>41640</v>
       </c>
       <c r="C497">
@@ -8804,7 +8806,7 @@
       <c r="A498">
         <v>26</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="3">
         <v>41640</v>
       </c>
       <c r="C498">
@@ -8821,7 +8823,7 @@
       <c r="A499">
         <v>26</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="3">
         <v>41640</v>
       </c>
       <c r="C499">
@@ -8838,7 +8840,7 @@
       <c r="A500">
         <v>26</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="3">
         <v>41640</v>
       </c>
       <c r="C500">
@@ -8855,7 +8857,7 @@
       <c r="A501">
         <v>26</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="3">
         <v>41640</v>
       </c>
       <c r="C501">
@@ -8872,7 +8874,7 @@
       <c r="A502">
         <v>26</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="3">
         <v>41640</v>
       </c>
       <c r="C502">
@@ -8889,7 +8891,7 @@
       <c r="A503">
         <v>26</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="3">
         <v>41640</v>
       </c>
       <c r="C503">
@@ -8906,7 +8908,7 @@
       <c r="A504">
         <v>26</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="3">
         <v>41640</v>
       </c>
       <c r="C504">
@@ -8923,7 +8925,7 @@
       <c r="A505">
         <v>26</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="3">
         <v>41640</v>
       </c>
       <c r="C505">
@@ -8940,7 +8942,7 @@
       <c r="A506">
         <v>26</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="3">
         <v>41640</v>
       </c>
       <c r="C506">
@@ -8957,7 +8959,7 @@
       <c r="A507">
         <v>26</v>
       </c>
-      <c r="B507">
+      <c r="B507" s="3">
         <v>41640</v>
       </c>
       <c r="C507">
@@ -8974,7 +8976,7 @@
       <c r="A508">
         <v>26</v>
       </c>
-      <c r="B508">
+      <c r="B508" s="3">
         <v>41640</v>
       </c>
       <c r="C508">
@@ -8991,7 +8993,7 @@
       <c r="A509">
         <v>26</v>
       </c>
-      <c r="B509">
+      <c r="B509" s="3">
         <v>41640</v>
       </c>
       <c r="C509">
@@ -9008,7 +9010,7 @@
       <c r="A510">
         <v>26</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="3">
         <v>41640</v>
       </c>
       <c r="C510">
@@ -9025,7 +9027,7 @@
       <c r="A511">
         <v>26</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="3">
         <v>41640</v>
       </c>
       <c r="C511">
@@ -9042,7 +9044,7 @@
       <c r="A512">
         <v>26</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="3">
         <v>41640</v>
       </c>
       <c r="C512">
@@ -9059,7 +9061,7 @@
       <c r="A513">
         <v>26</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="3">
         <v>41640</v>
       </c>
       <c r="C513">
